--- a/2024/shuffle-architecute/Teste10/content/results/metrics_2_7.xlsx
+++ b/2024/shuffle-architecute/Teste10/content/results/metrics_2_7.xlsx
@@ -492,34 +492,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9911442696031567</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.8056692395036915</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7917363673604643</v>
+        <v>0.9804730571083718</v>
       </c>
       <c r="E2" t="n">
-        <v>0.997595763147047</v>
+        <v>0.9263367033520418</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8327496000847705</v>
+        <v>0.9708985596281232</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.03716560453176498</v>
       </c>
       <c r="H2" t="n">
-        <v>1.670795202255249</v>
+        <v>1.299490690231323</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8602918982505798</v>
+        <v>0.1249390244483948</v>
       </c>
       <c r="J2" t="n">
-        <v>0.000901449064258486</v>
+        <v>0.1073459833860397</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4305966794490814</v>
+        <v>0.1161424964666367</v>
       </c>
     </row>
     <row r="3">
@@ -529,34 +529,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9911442696031567</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.8056692395036915</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7917363673604643</v>
+        <v>0.9804730571083718</v>
       </c>
       <c r="E3" t="n">
-        <v>0.997595763147047</v>
+        <v>0.9263367033520418</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8327496000847705</v>
+        <v>0.9708985596281232</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.03716560453176498</v>
       </c>
       <c r="H3" t="n">
-        <v>1.670795202255249</v>
+        <v>1.299490690231323</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8602918982505798</v>
+        <v>0.1249390244483948</v>
       </c>
       <c r="J3" t="n">
-        <v>0.000901449064258486</v>
+        <v>0.1073459833860397</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4305966794490814</v>
+        <v>0.1161424964666367</v>
       </c>
     </row>
     <row r="4">
@@ -566,34 +566,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9911442696031567</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.8056692395036915</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7917363673604643</v>
+        <v>0.9804730571083718</v>
       </c>
       <c r="E4" t="n">
-        <v>0.997595763147047</v>
+        <v>0.9263367033520418</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8327496000847705</v>
+        <v>0.9708985596281232</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.03716560453176498</v>
       </c>
       <c r="H4" t="n">
-        <v>1.670795202255249</v>
+        <v>1.299490690231323</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8602918982505798</v>
+        <v>0.1249390244483948</v>
       </c>
       <c r="J4" t="n">
-        <v>0.000901449064258486</v>
+        <v>0.1073459833860397</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4305966794490814</v>
+        <v>0.1161424964666367</v>
       </c>
     </row>
     <row r="5">
@@ -603,34 +603,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9911442696031567</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.8056692395036915</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7917363673604643</v>
+        <v>0.9804730571083718</v>
       </c>
       <c r="E5" t="n">
-        <v>0.997595763147047</v>
+        <v>0.9263367033520418</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8327496000847705</v>
+        <v>0.9708985596281232</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.03716560453176498</v>
       </c>
       <c r="H5" t="n">
-        <v>1.670795202255249</v>
+        <v>1.299490690231323</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8602918982505798</v>
+        <v>0.1249390244483948</v>
       </c>
       <c r="J5" t="n">
-        <v>0.000901449064258486</v>
+        <v>0.1073459833860397</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4305966794490814</v>
+        <v>0.1161424964666367</v>
       </c>
     </row>
     <row r="6">
@@ -640,34 +640,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9911442696031567</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.8056692395036915</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7917363673604643</v>
+        <v>0.9804730571083718</v>
       </c>
       <c r="E6" t="n">
-        <v>0.997595763147047</v>
+        <v>0.9263367033520418</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8327496000847705</v>
+        <v>0.9708985596281232</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.03716560453176498</v>
       </c>
       <c r="H6" t="n">
-        <v>1.670795202255249</v>
+        <v>1.299490690231323</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8602918982505798</v>
+        <v>0.1249390244483948</v>
       </c>
       <c r="J6" t="n">
-        <v>0.000901449064258486</v>
+        <v>0.1073459833860397</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4305966794490814</v>
+        <v>0.1161424964666367</v>
       </c>
     </row>
     <row r="7">
@@ -677,34 +677,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9911442696031567</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.8056692395036915</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7917363673604643</v>
+        <v>0.9804730571083718</v>
       </c>
       <c r="E7" t="n">
-        <v>0.997595763147047</v>
+        <v>0.9263367033520418</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8327496000847705</v>
+        <v>0.9708985596281232</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.03716560453176498</v>
       </c>
       <c r="H7" t="n">
-        <v>1.670795202255249</v>
+        <v>1.299490690231323</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8602918982505798</v>
+        <v>0.1249390244483948</v>
       </c>
       <c r="J7" t="n">
-        <v>0.000901449064258486</v>
+        <v>0.1073459833860397</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4305966794490814</v>
+        <v>0.1161424964666367</v>
       </c>
     </row>
     <row r="8">
@@ -714,34 +714,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9911442696031567</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.8056692395036915</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7917363673604643</v>
+        <v>0.9804730571083718</v>
       </c>
       <c r="E8" t="n">
-        <v>0.997595763147047</v>
+        <v>0.9263367033520418</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8327496000847705</v>
+        <v>0.9708985596281232</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.03716560453176498</v>
       </c>
       <c r="H8" t="n">
-        <v>1.670795202255249</v>
+        <v>1.299490690231323</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8602918982505798</v>
+        <v>0.1249390244483948</v>
       </c>
       <c r="J8" t="n">
-        <v>0.000901449064258486</v>
+        <v>0.1073459833860397</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4305966794490814</v>
+        <v>0.1161424964666367</v>
       </c>
     </row>
     <row r="9">
@@ -751,34 +751,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9911442696031567</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.8056692395036915</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7917363673604643</v>
+        <v>0.9804730571083718</v>
       </c>
       <c r="E9" t="n">
-        <v>0.997595763147047</v>
+        <v>0.9263367033520418</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8327496000847705</v>
+        <v>0.9708985596281232</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.03716560453176498</v>
       </c>
       <c r="H9" t="n">
-        <v>1.670795202255249</v>
+        <v>1.299490690231323</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8602918982505798</v>
+        <v>0.1249390244483948</v>
       </c>
       <c r="J9" t="n">
-        <v>0.000901449064258486</v>
+        <v>0.1073459833860397</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4305966794490814</v>
+        <v>0.1161424964666367</v>
       </c>
     </row>
     <row r="10">
@@ -788,34 +788,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9911442696031567</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.8056692395036915</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7917363673604643</v>
+        <v>0.9804730571083718</v>
       </c>
       <c r="E10" t="n">
-        <v>0.997595763147047</v>
+        <v>0.9263367033520418</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8327496000847705</v>
+        <v>0.9708985596281232</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.03716560453176498</v>
       </c>
       <c r="H10" t="n">
-        <v>1.670795202255249</v>
+        <v>1.299490690231323</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8602918982505798</v>
+        <v>0.1249390244483948</v>
       </c>
       <c r="J10" t="n">
-        <v>0.000901449064258486</v>
+        <v>0.1073459833860397</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4305966794490814</v>
+        <v>0.1161424964666367</v>
       </c>
     </row>
     <row r="11">
@@ -825,34 +825,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9911442696031567</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.8056692395036915</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7917363673604643</v>
+        <v>0.9804730571083718</v>
       </c>
       <c r="E11" t="n">
-        <v>0.997595763147047</v>
+        <v>0.9263367033520418</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8327496000847705</v>
+        <v>0.9708985596281232</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.03716560453176498</v>
       </c>
       <c r="H11" t="n">
-        <v>1.670795202255249</v>
+        <v>1.299490690231323</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8602918982505798</v>
+        <v>0.1249390244483948</v>
       </c>
       <c r="J11" t="n">
-        <v>0.000901449064258486</v>
+        <v>0.1073459833860397</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4305966794490814</v>
+        <v>0.1161424964666367</v>
       </c>
     </row>
     <row r="12">
@@ -862,34 +862,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9911442696031567</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.8056692395036915</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7917363673604643</v>
+        <v>0.9804730571083718</v>
       </c>
       <c r="E12" t="n">
-        <v>0.997595763147047</v>
+        <v>0.9263367033520418</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8327496000847705</v>
+        <v>0.9708985596281232</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.03716560453176498</v>
       </c>
       <c r="H12" t="n">
-        <v>1.670795202255249</v>
+        <v>1.299490690231323</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8602918982505798</v>
+        <v>0.1249390244483948</v>
       </c>
       <c r="J12" t="n">
-        <v>0.000901449064258486</v>
+        <v>0.1073459833860397</v>
       </c>
       <c r="K12" t="n">
-        <v>0.4305966794490814</v>
+        <v>0.1161424964666367</v>
       </c>
     </row>
     <row r="13">
@@ -899,34 +899,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9911442696031567</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.8056692395036915</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7917363673604643</v>
+        <v>0.9804730571083718</v>
       </c>
       <c r="E13" t="n">
-        <v>0.997595763147047</v>
+        <v>0.9263367033520418</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8327496000847705</v>
+        <v>0.9708985596281232</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.03716560453176498</v>
       </c>
       <c r="H13" t="n">
-        <v>1.670795202255249</v>
+        <v>1.299490690231323</v>
       </c>
       <c r="I13" t="n">
-        <v>0.8602918982505798</v>
+        <v>0.1249390244483948</v>
       </c>
       <c r="J13" t="n">
-        <v>0.000901449064258486</v>
+        <v>0.1073459833860397</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4305966794490814</v>
+        <v>0.1161424964666367</v>
       </c>
     </row>
     <row r="14">
@@ -936,34 +936,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9911442696031567</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.8056692395036915</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7917363673604643</v>
+        <v>0.9804730571083718</v>
       </c>
       <c r="E14" t="n">
-        <v>0.997595763147047</v>
+        <v>0.9263367033520418</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8327496000847705</v>
+        <v>0.9708985596281232</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.03716560453176498</v>
       </c>
       <c r="H14" t="n">
-        <v>1.670795202255249</v>
+        <v>1.299490690231323</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8602918982505798</v>
+        <v>0.1249390244483948</v>
       </c>
       <c r="J14" t="n">
-        <v>0.000901449064258486</v>
+        <v>0.1073459833860397</v>
       </c>
       <c r="K14" t="n">
-        <v>0.4305966794490814</v>
+        <v>0.1161424964666367</v>
       </c>
     </row>
     <row r="15">
@@ -973,34 +973,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9911442696031567</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.8056692395036915</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7917363673604643</v>
+        <v>0.9804730571083718</v>
       </c>
       <c r="E15" t="n">
-        <v>0.997595763147047</v>
+        <v>0.9263367033520418</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8327496000847705</v>
+        <v>0.9708985596281232</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.03716560453176498</v>
       </c>
       <c r="H15" t="n">
-        <v>1.670795202255249</v>
+        <v>1.299490690231323</v>
       </c>
       <c r="I15" t="n">
-        <v>0.8602918982505798</v>
+        <v>0.1249390244483948</v>
       </c>
       <c r="J15" t="n">
-        <v>0.000901449064258486</v>
+        <v>0.1073459833860397</v>
       </c>
       <c r="K15" t="n">
-        <v>0.4305966794490814</v>
+        <v>0.1161424964666367</v>
       </c>
     </row>
     <row r="16">
@@ -1010,34 +1010,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9911442696031567</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.8056692395036915</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7917363673604643</v>
+        <v>0.9804730571083718</v>
       </c>
       <c r="E16" t="n">
-        <v>0.997595763147047</v>
+        <v>0.9263367033520418</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8327496000847705</v>
+        <v>0.9708985596281232</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.03716560453176498</v>
       </c>
       <c r="H16" t="n">
-        <v>1.670795202255249</v>
+        <v>1.299490690231323</v>
       </c>
       <c r="I16" t="n">
-        <v>0.8602918982505798</v>
+        <v>0.1249390244483948</v>
       </c>
       <c r="J16" t="n">
-        <v>0.000901449064258486</v>
+        <v>0.1073459833860397</v>
       </c>
       <c r="K16" t="n">
-        <v>0.4305966794490814</v>
+        <v>0.1161424964666367</v>
       </c>
     </row>
     <row r="17">
@@ -1047,34 +1047,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9911442696031567</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.8056692395036915</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7917363673604643</v>
+        <v>0.9804730571083718</v>
       </c>
       <c r="E17" t="n">
-        <v>0.997595763147047</v>
+        <v>0.9263367033520418</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8327496000847705</v>
+        <v>0.9708985596281232</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.03716560453176498</v>
       </c>
       <c r="H17" t="n">
-        <v>1.670795202255249</v>
+        <v>1.299490690231323</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8602918982505798</v>
+        <v>0.1249390244483948</v>
       </c>
       <c r="J17" t="n">
-        <v>0.000901449064258486</v>
+        <v>0.1073459833860397</v>
       </c>
       <c r="K17" t="n">
-        <v>0.4305966794490814</v>
+        <v>0.1161424964666367</v>
       </c>
     </row>
     <row r="18">
@@ -1084,34 +1084,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9911442696031567</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.8056692395036915</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7917363673604643</v>
+        <v>0.9804730571083718</v>
       </c>
       <c r="E18" t="n">
-        <v>0.997595763147047</v>
+        <v>0.9263367033520418</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8327496000847705</v>
+        <v>0.9708985596281232</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.03716560453176498</v>
       </c>
       <c r="H18" t="n">
-        <v>1.670795202255249</v>
+        <v>1.299490690231323</v>
       </c>
       <c r="I18" t="n">
-        <v>0.8602918982505798</v>
+        <v>0.1249390244483948</v>
       </c>
       <c r="J18" t="n">
-        <v>0.000901449064258486</v>
+        <v>0.1073459833860397</v>
       </c>
       <c r="K18" t="n">
-        <v>0.4305966794490814</v>
+        <v>0.1161424964666367</v>
       </c>
     </row>
     <row r="19">
@@ -1121,34 +1121,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9911442696031567</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.8056692395036915</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7917363673604643</v>
+        <v>0.9804730571083718</v>
       </c>
       <c r="E19" t="n">
-        <v>0.997595763147047</v>
+        <v>0.9263367033520418</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8327496000847705</v>
+        <v>0.9708985596281232</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.03716560453176498</v>
       </c>
       <c r="H19" t="n">
-        <v>1.670795202255249</v>
+        <v>1.299490690231323</v>
       </c>
       <c r="I19" t="n">
-        <v>0.8602918982505798</v>
+        <v>0.1249390244483948</v>
       </c>
       <c r="J19" t="n">
-        <v>0.000901449064258486</v>
+        <v>0.1073459833860397</v>
       </c>
       <c r="K19" t="n">
-        <v>0.4305966794490814</v>
+        <v>0.1161424964666367</v>
       </c>
     </row>
     <row r="20">
@@ -1158,34 +1158,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9911442696031567</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.8056692395036915</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7917363673604643</v>
+        <v>0.9804730571083718</v>
       </c>
       <c r="E20" t="n">
-        <v>0.997595763147047</v>
+        <v>0.9263367033520418</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8327496000847705</v>
+        <v>0.9708985596281232</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.03716560453176498</v>
       </c>
       <c r="H20" t="n">
-        <v>1.670795202255249</v>
+        <v>1.299490690231323</v>
       </c>
       <c r="I20" t="n">
-        <v>0.8602918982505798</v>
+        <v>0.1249390244483948</v>
       </c>
       <c r="J20" t="n">
-        <v>0.000901449064258486</v>
+        <v>0.1073459833860397</v>
       </c>
       <c r="K20" t="n">
-        <v>0.4305966794490814</v>
+        <v>0.1161424964666367</v>
       </c>
     </row>
     <row r="21">
@@ -1195,34 +1195,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9911442696031567</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.8056692395036915</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7917363673604643</v>
+        <v>0.9804730571083718</v>
       </c>
       <c r="E21" t="n">
-        <v>0.997595763147047</v>
+        <v>0.9263367033520418</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8327496000847705</v>
+        <v>0.9708985596281232</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.03716560453176498</v>
       </c>
       <c r="H21" t="n">
-        <v>1.670795202255249</v>
+        <v>1.299490690231323</v>
       </c>
       <c r="I21" t="n">
-        <v>0.8602918982505798</v>
+        <v>0.1249390244483948</v>
       </c>
       <c r="J21" t="n">
-        <v>0.000901449064258486</v>
+        <v>0.1073459833860397</v>
       </c>
       <c r="K21" t="n">
-        <v>0.4305966794490814</v>
+        <v>0.1161424964666367</v>
       </c>
     </row>
     <row r="22">
@@ -1232,34 +1232,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9911442696031567</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.8056692395036915</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7917363673604643</v>
+        <v>0.9804730571083718</v>
       </c>
       <c r="E22" t="n">
-        <v>0.997595763147047</v>
+        <v>0.9263367033520418</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8327496000847705</v>
+        <v>0.9708985596281232</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.03716560453176498</v>
       </c>
       <c r="H22" t="n">
-        <v>1.670795202255249</v>
+        <v>1.299490690231323</v>
       </c>
       <c r="I22" t="n">
-        <v>0.8602918982505798</v>
+        <v>0.1249390244483948</v>
       </c>
       <c r="J22" t="n">
-        <v>0.000901449064258486</v>
+        <v>0.1073459833860397</v>
       </c>
       <c r="K22" t="n">
-        <v>0.4305966794490814</v>
+        <v>0.1161424964666367</v>
       </c>
     </row>
     <row r="23">
@@ -1269,34 +1269,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9911442696031567</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.8056692395036915</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7917363673604643</v>
+        <v>0.9804730571083718</v>
       </c>
       <c r="E23" t="n">
-        <v>0.997595763147047</v>
+        <v>0.9263367033520418</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8327496000847705</v>
+        <v>0.9708985596281232</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.03716560453176498</v>
       </c>
       <c r="H23" t="n">
-        <v>1.670795202255249</v>
+        <v>1.299490690231323</v>
       </c>
       <c r="I23" t="n">
-        <v>0.8602918982505798</v>
+        <v>0.1249390244483948</v>
       </c>
       <c r="J23" t="n">
-        <v>0.000901449064258486</v>
+        <v>0.1073459833860397</v>
       </c>
       <c r="K23" t="n">
-        <v>0.4305966794490814</v>
+        <v>0.1161424964666367</v>
       </c>
     </row>
     <row r="24">
@@ -1306,34 +1306,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9911442696031567</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.8056692395036915</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7917363673604643</v>
+        <v>0.9804730571083718</v>
       </c>
       <c r="E24" t="n">
-        <v>0.997595763147047</v>
+        <v>0.9263367033520418</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8327496000847705</v>
+        <v>0.9708985596281232</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.03716560453176498</v>
       </c>
       <c r="H24" t="n">
-        <v>1.670795202255249</v>
+        <v>1.299490690231323</v>
       </c>
       <c r="I24" t="n">
-        <v>0.8602918982505798</v>
+        <v>0.1249390244483948</v>
       </c>
       <c r="J24" t="n">
-        <v>0.000901449064258486</v>
+        <v>0.1073459833860397</v>
       </c>
       <c r="K24" t="n">
-        <v>0.4305966794490814</v>
+        <v>0.1161424964666367</v>
       </c>
     </row>
     <row r="25">
@@ -1343,34 +1343,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9911442696031567</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.8056692395036915</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7917363673604643</v>
+        <v>0.9804730571083718</v>
       </c>
       <c r="E25" t="n">
-        <v>0.997595763147047</v>
+        <v>0.9263367033520418</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8327496000847705</v>
+        <v>0.9708985596281232</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.03716560453176498</v>
       </c>
       <c r="H25" t="n">
-        <v>1.670795202255249</v>
+        <v>1.299490690231323</v>
       </c>
       <c r="I25" t="n">
-        <v>0.8602918982505798</v>
+        <v>0.1249390244483948</v>
       </c>
       <c r="J25" t="n">
-        <v>0.000901449064258486</v>
+        <v>0.1073459833860397</v>
       </c>
       <c r="K25" t="n">
-        <v>0.4305966794490814</v>
+        <v>0.1161424964666367</v>
       </c>
     </row>
     <row r="26">
@@ -1380,34 +1380,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9911442696031567</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.8056692395036915</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7917363673604643</v>
+        <v>0.9804730571083718</v>
       </c>
       <c r="E26" t="n">
-        <v>0.997595763147047</v>
+        <v>0.9263367033520418</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8327496000847705</v>
+        <v>0.9708985596281232</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.03716560453176498</v>
       </c>
       <c r="H26" t="n">
-        <v>1.670795202255249</v>
+        <v>1.299490690231323</v>
       </c>
       <c r="I26" t="n">
-        <v>0.8602918982505798</v>
+        <v>0.1249390244483948</v>
       </c>
       <c r="J26" t="n">
-        <v>0.000901449064258486</v>
+        <v>0.1073459833860397</v>
       </c>
       <c r="K26" t="n">
-        <v>0.4305966794490814</v>
+        <v>0.1161424964666367</v>
       </c>
     </row>
   </sheetData>
